--- a/Users Loads38.xlsx
+++ b/Users Loads38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.289824319644465</v>
+        <v>2.680547878179397</v>
       </c>
       <c r="C2" t="n">
-        <v>6.493563688346157</v>
+        <v>3.319203997033888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2847067275806931</v>
+        <v>0.2825012051988127</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.637421679430974</v>
+        <v>3.293323115385867</v>
       </c>
       <c r="C3" t="n">
-        <v>9.152912382991593</v>
+        <v>5.214157923782978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.486379450815107</v>
+        <v>0.3453663251742081</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.895659184031648</v>
+        <v>4.683461215887768</v>
       </c>
       <c r="C4" t="n">
-        <v>6.682766918390716</v>
+        <v>6.165732357402118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4293293274969534</v>
+        <v>0.6716842311308719</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.61635527250735</v>
+        <v>6.951129236675985</v>
       </c>
       <c r="C5" t="n">
-        <v>5.692467598676973</v>
+        <v>6.541867992910278</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2970686138582425</v>
+        <v>0.7157050375511874</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.51641903921626</v>
+        <v>9.333497659431121</v>
       </c>
       <c r="C6" t="n">
-        <v>7.810415899283313</v>
+        <v>5.120028547227999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187108126300851</v>
+        <v>0.4350716889046267</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.874075862190086</v>
+        <v>13.50805455165948</v>
       </c>
       <c r="C7" t="n">
-        <v>8.265769574361835</v>
+        <v>3.016396305463201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3365620640950573</v>
+        <v>0.359896196299747</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.05633200588241</v>
+        <v>13.60696297834642</v>
       </c>
       <c r="C8" t="n">
-        <v>5.526386296307468</v>
+        <v>5.11717087493444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.513827716911926</v>
+        <v>0.7195035999195827</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.467685145956624</v>
+        <v>14.69031630998242</v>
       </c>
       <c r="C9" t="n">
-        <v>5.04612822607832</v>
+        <v>5.348039034154089</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4225894693551767</v>
+        <v>0.7784947732156224</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.430200973540112</v>
+        <v>21.50116550314986</v>
       </c>
       <c r="C10" t="n">
-        <v>4.084668138010389</v>
+        <v>3.485107818588086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2722018269186266</v>
+        <v>0.422328858404157</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.34152427871211</v>
+        <v>22.01750438709448</v>
       </c>
       <c r="C11" t="n">
-        <v>9.919086399117059</v>
+        <v>2.267122903943546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3855834953914728</v>
+        <v>0.2631772538557232</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.54461247375548</v>
+        <v>25.41614350693943</v>
       </c>
       <c r="C12" t="n">
-        <v>6.382667741402566</v>
+        <v>4.897956265591998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3826427262680679</v>
+        <v>0.3767074865728752</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.24750885465757</v>
+        <v>25.42682807921608</v>
       </c>
       <c r="C13" t="n">
-        <v>5.177553259234611</v>
+        <v>5.891936417076671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2290327764430855</v>
+        <v>0.4269307862607196</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.55751671301598</v>
+        <v>26.79393297518764</v>
       </c>
       <c r="C14" t="n">
-        <v>8.020758121795158</v>
+        <v>2.739552542789776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4302694570203511</v>
+        <v>0.3030001231304667</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3780700670709</v>
+        <v>27.26275387228738</v>
       </c>
       <c r="C15" t="n">
-        <v>8.206130003558496</v>
+        <v>1.731183501820867</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4455613710345445</v>
+        <v>0.2644166871548487</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.98625483007581</v>
+        <v>28.45059473971185</v>
       </c>
       <c r="C16" t="n">
-        <v>6.813057501720823</v>
+        <v>5.062934865284817</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5026831390286129</v>
+        <v>0.5466263509516699</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.80376270251445</v>
+        <v>29.55175350139817</v>
       </c>
       <c r="C17" t="n">
-        <v>5.230043313820921</v>
+        <v>4.287800899446687</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1860433441130959</v>
+        <v>0.500170348143043</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18.30094526738351</v>
+        <v>29.65094145686233</v>
       </c>
       <c r="C18" t="n">
-        <v>10.51458515863399</v>
+        <v>6.844356512189777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2088859864135137</v>
+        <v>0.6460918220358707</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19.31970989484038</v>
+        <v>30.89708900065155</v>
       </c>
       <c r="C19" t="n">
-        <v>8.238269659202684</v>
+        <v>4.224387055418373</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4004979794562089</v>
+        <v>0.6404667318694662</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19.45914729865139</v>
+        <v>35.2862645317973</v>
       </c>
       <c r="C20" t="n">
-        <v>7.017891413661648</v>
+        <v>7.277633630893356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2165506543319076</v>
+        <v>0.5484196950235548</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19.80777657921011</v>
+        <v>36.51543813098302</v>
       </c>
       <c r="C21" t="n">
-        <v>11.8935291481145</v>
+        <v>2.993790432427544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3807623523377958</v>
+        <v>0.379137753879264</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20.9991549493765</v>
+        <v>36.6278758329487</v>
       </c>
       <c r="C22" t="n">
-        <v>8.243475520945534</v>
+        <v>4.002751740159997</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309900047278239</v>
+        <v>0.3516322337604448</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.89728339386408</v>
+        <v>38.25203639453519</v>
       </c>
       <c r="C23" t="n">
-        <v>8.015126524876843</v>
+        <v>5.930863590088866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212672031225307</v>
+        <v>0.6853948679829325</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.94123200834983</v>
+        <v>38.2584435597739</v>
       </c>
       <c r="C24" t="n">
-        <v>11.88534683661047</v>
+        <v>5.453968215432416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3571782937286465</v>
+        <v>0.6657015999130307</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.24235228523307</v>
+        <v>38.29725382456718</v>
       </c>
       <c r="C25" t="n">
-        <v>6.086511237765709</v>
+        <v>2.356738310715269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4249182044385597</v>
+        <v>0.2328241463398601</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>31.11085008405147</v>
+        <v>42.41458223215477</v>
       </c>
       <c r="C26" t="n">
-        <v>9.99186157601695</v>
+        <v>2.604286701798036</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4465171089797429</v>
+        <v>0.2064699705943316</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32.24094092537905</v>
+        <v>42.94109627437913</v>
       </c>
       <c r="C27" t="n">
-        <v>5.0554707804421</v>
+        <v>5.392739423917465</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2901231118059923</v>
+        <v>0.5652148025532755</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>33.03250094745215</v>
+        <v>49.05400995934143</v>
       </c>
       <c r="C28" t="n">
-        <v>5.042894755326273</v>
+        <v>6.474095556784668</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4978496902459243</v>
+        <v>0.4417300849378889</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>34.8436269030414</v>
+        <v>49.84737209072131</v>
       </c>
       <c r="C29" t="n">
-        <v>3.676954903909394</v>
+        <v>4.482427656122769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1809500968849667</v>
+        <v>0.2705332300557072</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>34.87963131041888</v>
+        <v>51.47668689286654</v>
       </c>
       <c r="C30" t="n">
-        <v>6.874619385050639</v>
+        <v>3.317115949838926</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3316691878765685</v>
+        <v>0.3025464304497369</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>36.68794533673388</v>
+        <v>51.63875643274738</v>
       </c>
       <c r="C31" t="n">
-        <v>3.324948034978396</v>
+        <v>4.441467814813937</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2994461267725022</v>
+        <v>0.5126364714683599</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>36.81961751042321</v>
+        <v>53.82193295856462</v>
       </c>
       <c r="C32" t="n">
-        <v>5.805590637322375</v>
+        <v>4.450307326830363</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3171487391683461</v>
+        <v>0.294647145358398</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.74792793497998</v>
+        <v>55.24767650329283</v>
       </c>
       <c r="C33" t="n">
-        <v>5.304958641076871</v>
+        <v>2.699736812796126</v>
       </c>
       <c r="D33" t="n">
-        <v>0.321020722964219</v>
+        <v>0.3073776463223511</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38.89839386964629</v>
+        <v>58.69360396685308</v>
       </c>
       <c r="C34" t="n">
-        <v>3.594942720795984</v>
+        <v>3.881870824261985</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2381261812836387</v>
+        <v>0.4159233798847128</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.58860171337115</v>
+        <v>58.74170507022106</v>
       </c>
       <c r="C35" t="n">
-        <v>6.678726362615191</v>
+        <v>2.109811479845523</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09801104000838505</v>
+        <v>0.4196050207000653</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.9362730071439</v>
+        <v>59.04254379793277</v>
       </c>
       <c r="C36" t="n">
-        <v>8.212547710257704</v>
+        <v>4.083522748845325</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3060385947861957</v>
+        <v>0.5663741460061256</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>41.09261056373947</v>
+        <v>66.25553564605333</v>
       </c>
       <c r="C37" t="n">
-        <v>8.453696749945914</v>
+        <v>5.320621757317736</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3504860596869946</v>
+        <v>0.6046205997980697</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41.39445270891141</v>
+        <v>70.04888047040387</v>
       </c>
       <c r="C38" t="n">
-        <v>1.863621603523548</v>
+        <v>6.299483971744238</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3154743973069522</v>
+        <v>0.6743867352416756</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>42.12299152968111</v>
+        <v>78.36088695100212</v>
       </c>
       <c r="C39" t="n">
-        <v>3.644384154521249</v>
+        <v>3.514560719377644</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2579961220266286</v>
+        <v>0.3192684970381697</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.5277671689528</v>
+        <v>85.2265870653515</v>
       </c>
       <c r="C40" t="n">
-        <v>6.834041818127531</v>
+        <v>6.65415478647071</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1319744481658096</v>
+        <v>0.5304121381070876</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43.91578376753869</v>
+        <v>87.50301125925277</v>
       </c>
       <c r="C41" t="n">
-        <v>8.18088765626435</v>
+        <v>3.570018547244863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5733507608394669</v>
+        <v>0.4839074499509515</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>45.39303490587421</v>
+        <v>87.69693493097242</v>
       </c>
       <c r="C42" t="n">
-        <v>3.29421880115581</v>
+        <v>3.496636848398242</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2354962487595789</v>
+        <v>0.3487203206269693</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46.41800051050324</v>
+        <v>87.71238968898456</v>
       </c>
       <c r="C43" t="n">
-        <v>6.272875825509844</v>
+        <v>1.737525205417571</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3680892319370777</v>
+        <v>0.3517454921781656</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46.91835616042844</v>
+        <v>88.60351577909941</v>
       </c>
       <c r="C44" t="n">
-        <v>3.522293888942944</v>
+        <v>2.488654830657869</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2285805283037872</v>
+        <v>0.54353352564527</v>
       </c>
     </row>
     <row r="45">
@@ -1057,587 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>47.99140894177953</v>
+        <v>89.85544021471758</v>
       </c>
       <c r="C45" t="n">
-        <v>1.130152290597451</v>
+        <v>2.556839105134737</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2395384419898836</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>49.70001992590795</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7.127042364434301</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.2864253714821687</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>50.07056534263777</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3.229213725337503</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3132338816183355</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>51.11555917832531</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5.692758885431161</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.1336128929933106</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>52.02608230148821</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7.463917304710519</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2132291329741247</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>53.716393429411</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.893802133938321</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1828378894516273</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>55.04526763540701</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.971637049750946</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.1202367136797652</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>55.83434093579845</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9.290254406914112</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.3978741319867871</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>56.06038923859467</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.398594180295474</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.1880830246165998</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>57.80921036393339</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.499850002796813</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.1648951700010122</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>58.9747886490556</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7.931012497624072</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.4546599721619289</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>59.27414484084145</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.952006694468975</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.2752760734162796</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>62.71426171291152</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.079476035739585</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.123163896661119</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>63.3600726129897</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.06044719266673</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0666098352151121</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>65.11584065738444</v>
-      </c>
-      <c r="C59" t="n">
-        <v>6.75307304889682</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.4381281028116474</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>67.49803082182203</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.800706685534702</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.1588464016669605</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>69.80197408662664</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5.263888065934913</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3466294153652819</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>70.39087041722698</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8.097669249900342</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.2922939881869233</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>72.00348157549733</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.126400725537761</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.2645117232576821</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>73.64094965642327</v>
-      </c>
-      <c r="C64" t="n">
-        <v>7.196695424629148</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.1621461125291538</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>73.78862828653007</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.402307544459518</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.2377743914331355</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>76.32599621157962</v>
-      </c>
-      <c r="C66" t="n">
-        <v>9.018113090519142</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.3578752129066156</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>77.36265735180882</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6.049083332001117</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.112232106453286</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>79.48718721860891</v>
-      </c>
-      <c r="C68" t="n">
-        <v>9.44486700786222</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.3085615800249304</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>79.85407294568813</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.676193170289984</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.3220359558097144</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>80.06676916369678</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10.5413763664603</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.3725492905858436</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>80.29570074495187</v>
-      </c>
-      <c r="C71" t="n">
-        <v>5.624150236628221</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.345731427181162</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>82.59052736817033</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5.798851014521514</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.4565311572509899</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>83.14170509781201</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8.839849822944352</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.2189583128017479</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>83.37637806976599</v>
-      </c>
-      <c r="C74" t="n">
-        <v>6.961880551982064</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.1143465935489543</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>85.42117215816764</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.446822559178217</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.3253429072536893</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>86.2697100317873</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.3484711186035</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1559988823838979</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>88.47162762756638</v>
-      </c>
-      <c r="C77" t="n">
-        <v>7.354427099577868</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.4617435906415492</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>89.49608034728091</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4.165040118742698</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.1059169016568187</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>90.95695219473292</v>
-      </c>
-      <c r="C79" t="n">
-        <v>7.585704028196489</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.3222392077691756</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>91.66248780453095</v>
-      </c>
-      <c r="C80" t="n">
-        <v>10.68789166755272</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.4035919568768139</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>95.08934289304072</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.558371734144702</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.1371994008892283</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>95.21659155124077</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.549767210935069</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.4907912845113242</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>95.26943843568792</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5.508305850062309</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.2716319115059986</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>95.91809348125572</v>
-      </c>
-      <c r="C84" t="n">
-        <v>10.46607229287694</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.3573090316351133</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>97.19881725686525</v>
-      </c>
-      <c r="C85" t="n">
-        <v>9.306140497953319</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4483748850078382</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>98.07780579692118</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.635225733094108</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.1407648689954348</v>
+        <v>0.5490139710076254</v>
       </c>
     </row>
   </sheetData>
